--- a/sport/output/44.xlsx
+++ b/sport/output/44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="294">
   <si>
     <t>month</t>
   </si>
@@ -61,886 +61,841 @@
     <t>December</t>
   </si>
   <si>
-    <t>2-5 Jan: WTT Youth Contender San Francisco 2025 (USA)</t>
-  </si>
-  <si>
-    <t>6-11 Jan: WTT Star Contender Doha 2025 (QAT)</t>
-  </si>
-  <si>
-    <t>8-11 Jan: WTT Youth Contender Linz 2025 (AUT)</t>
-  </si>
-  <si>
-    <t>11-17 Jan: WTT Contender Muscat 2025 (OMA)</t>
-  </si>
-  <si>
-    <t>13-16 Jan: WTT Youth Contender Tunis 2025 (TUN)</t>
-  </si>
-  <si>
-    <t>17-19 Jan: WTT Youth Star Contender Tunis 2025 (TUN)</t>
-  </si>
-  <si>
-    <t>21-25 Jan: 2025 European Team Championships Stage 1 – Sarajevo (BIH)</t>
-  </si>
-  <si>
-    <t>27-30 Jan: WTT Youth Contender Doha 2025 (QAT)</t>
-  </si>
-  <si>
-    <t>30 Jan-9 Feb: Singapore Smash 2025 (SGP)</t>
-  </si>
-  <si>
-    <t>31 Jan-2 Feb: WTT Youth Star Contender Doha 2025 (QAT)</t>
-  </si>
-  <si>
-    <t>4-8 Feb: WTT Feeder Doha 2025 (QAT)</t>
-  </si>
-  <si>
-    <t>6-9 Feb: Singapore Youth Smash 2025 (SGP)</t>
-  </si>
-  <si>
-    <t>10-14 Feb: WTT Feeder Düsseldorf 2025 (GER)</t>
-  </si>
-  <si>
-    <t>12-15 Feb: WTT Youth Contender Puerto Princesa 2025 (PHI)</t>
-  </si>
-  <si>
-    <t>12-15 Feb: WTT Youth Contender Cappadocia 2025 (TUR)</t>
-  </si>
-  <si>
-    <t>15-16 Feb: ITTF-Oceania Cup, Melbourne (AUS)</t>
-  </si>
-  <si>
-    <t>17-20 Feb: WTT Youth Contender Vila Real 2025 (POR)</t>
-  </si>
-  <si>
-    <t>17-21 Feb: WTT Feeder Cappadocia 2025 (TUR)</t>
-  </si>
-  <si>
-    <t>18-23 Feb: ITTF Pan American Cup, San Francisco (USA)</t>
-  </si>
-  <si>
-    <t>19-23 Feb: 34th ITTF-ATTU Asian Cup, Shenzhen (CHN)</t>
-  </si>
-  <si>
-    <t>20-23 Feb: 2025 CCB Europe Top 16 Cup – Montreux (SUI)</t>
-  </si>
-  <si>
-    <t>25-27 Feb: ITTF- African Cup, Tunis (TUN)</t>
-  </si>
-  <si>
-    <t>26 Feb-1 Mar: WTT Youth Contender Vadodara 2025 (IND)</t>
-  </si>
-  <si>
-    <t>5-8 Mar: WTT Youth Contender Wladyslawowo 2025 (POL)</t>
-  </si>
-  <si>
-    <t>6-9 Mar: ITTF World Para Future Lignano 2025 (ITA)</t>
-  </si>
-  <si>
-    <t>9-11 Mar: 2025 ITTF – CONSUTEME Circle 10, Asunción (PAR)**</t>
-  </si>
-  <si>
-    <t>10-16 Mar: WTT Youth Contender Berlin 2025 (GER)</t>
-  </si>
-  <si>
-    <t>10-16 Mar: WTT Youth Contender Havirov 2025 (CZE)</t>
-  </si>
-  <si>
-    <t>11-14 Mar: ITTF World Para Future Costa Brava 2025 (ESP)</t>
-  </si>
-  <si>
-    <t>11-16 Mar: WTT Champions Chongqing 2025 (CHN)</t>
-  </si>
-  <si>
-    <t>13-16 Mar: WTT Youth Contender Asunción 2025 (PAR)</t>
-  </si>
-  <si>
-    <t>18-21 Mar: WTT Youth Contender Buenos Aires 2025 (ARG)</t>
-  </si>
-  <si>
-    <t>19-22 Mar: WTT Youth Contender Gangneung 2025 (KOR)</t>
-  </si>
-  <si>
-    <t>24-30 Mar: South America Regional U11-U13 Championships, Cuenca (ECU)**</t>
-  </si>
-  <si>
-    <t>25-29 Mar: WTT Feeder Otocec 2025 (SLO)</t>
-  </si>
-  <si>
-    <t>25-30 Mar: WTT Star Contender Chennai 2025 (IND)</t>
-  </si>
-  <si>
-    <t>26-29 Mar: WTT Youth Contender Humacao 2025 (PUR)</t>
-  </si>
-  <si>
-    <t>26-29 Mar : ITTF World Para Challenger Wladyslawowo 2025 (POL)</t>
-  </si>
-  <si>
-    <t>30 Mar-3 Apr: WTT Feeder Otocec II 2025 (SLO)</t>
-  </si>
-  <si>
-    <t>1-4 Apr: WTT Youth Contender Cuenca 2025 (ECU)</t>
-  </si>
-  <si>
-    <t>1-6 Apr: WTT Champions Incheon 2025 (KOR)</t>
-  </si>
-  <si>
-    <t>1-6 Apr: Central America Regional Championships, San José (CRC)</t>
-  </si>
-  <si>
-    <t>2-5 Apr: WTT Youth Contender Zrenjanin 2025 (SRB)</t>
-  </si>
-  <si>
-    <t>5-8 Apr: WTT Youth Contender San Francisco II (USA)</t>
-  </si>
-  <si>
-    <t>5-9 Apr: WTT Feeder Havirov 2025 (CZE)</t>
-  </si>
-  <si>
-    <t>7-10 Apr: WTT Youth Contender Metz 2025 (FRA)</t>
-  </si>
-  <si>
-    <t>8-13 Apr: WTT Contender Taiyuan 2025 (CHN)</t>
-  </si>
-  <si>
-    <t>08-10 Apr: ITTF World Para Future, Lahti 2025 (FIN) “U23 Event 6-7 Apr”</t>
-  </si>
-  <si>
-    <t>10-13 Apr: WTT Feeder Beirut 2025 (LBN)</t>
-  </si>
-  <si>
-    <t>11-13 Apr: WTT Youth Star Contender Metz 2025 (FRA)</t>
-  </si>
-  <si>
-    <t>13-15 Apr: ITTF World Para Future Amman 2025 (JOR)</t>
-  </si>
-  <si>
-    <t>14-17 Apr: WTT Feeder Beirut II 2025 (LBN)</t>
-  </si>
-  <si>
-    <t>14-20 Apr: ITTF Men’s and Women’s World Cup, Macao (MAC)</t>
-  </si>
-  <si>
-    <t>15-20 Apr: South America Masters Championships, Rio de Janeiro (BRA)**</t>
-  </si>
-  <si>
-    <t>20-26 Apr: Caribbean Regional Youth Championships, Bridgetown (BAR)</t>
-  </si>
-  <si>
-    <t>19-22 Apr: WTT Youth Contender Beirut 2025 (LBN)</t>
-  </si>
-  <si>
-    <t>22-25 Apr: WTT Youth Contender Sarajevo 2025 (BIH)</t>
-  </si>
-  <si>
-    <t>22-27 Apr: WTT Contender Tunis 2025 (TUN)</t>
-  </si>
-  <si>
-    <t>24-27 Apr: WTT Feeder Manchester 2025 (ENG)</t>
-  </si>
-  <si>
-    <t>24-27 Apr: ITTF World Para Challenger Sao Paulo 2025 (BRA)</t>
-  </si>
-  <si>
-    <t>28-30 Apr: North Africa Regional Championships, Tunis (TUN)</t>
-  </si>
-  <si>
-    <t>28 Apr-1 May: WTT Youth Contender Bangkok 2025 (THA)</t>
-  </si>
-  <si>
-    <t>30 Apr-3 May: ITTF World Para Challenger Podgorica 2025 (MNE)</t>
-  </si>
-  <si>
-    <t>1-6 May: Central America Regional Youth Championships, Guatemala City (GUA)</t>
-  </si>
-  <si>
-    <t>2-4 May: WTT Youth Star Contender Bangkok 2025 (THA)</t>
-  </si>
-  <si>
-    <t>6-10 May: ITTF World Para Challenger Lasko 2025 (SLO)</t>
-  </si>
-  <si>
-    <t>7-11 May: European U21 Championships, Bratislava (SVK)</t>
-  </si>
-  <si>
-    <t>12-16 May : ITTF World Para Elite Lasko presented by I FEEL SLOVENIA 2025</t>
-  </si>
-  <si>
-    <t>13-16 May: WTT Youth Contender Monteria 2025 (COL)</t>
-  </si>
-  <si>
-    <t>15-18 May: WTT Youth Contender Panagyurishte 2025 (BUL)</t>
-  </si>
-  <si>
-    <t>17-25 May: ITTF World Table Tennis Championships Finals 2025, Doha (QAT)</t>
-  </si>
-  <si>
-    <t>18-24 May: South America Regional Youth Championships, Monteria (COL)</t>
-  </si>
-  <si>
-    <t>20-23 May: WTT Youth Contender Platja D’Aro 2025 (ESP)</t>
-  </si>
-  <si>
-    <t>28-31 May: WTT Youth Contender Tashkent 2025 (UZB)</t>
-  </si>
-  <si>
-    <t>28-31 May: East Africa Regional Championships, Antananarivo (MAD)</t>
-  </si>
-  <si>
-    <t>29 May-1 Jun: WTT Youth Contender Prishtina 2025 (KOS)</t>
-  </si>
-  <si>
-    <t>3-7 Jun: WTT Feeder Prishtina 2025 (KOS)</t>
-  </si>
-  <si>
-    <t>6-9 Jun: WTT Youth Contender Helsingborg 2025 (SWE)</t>
-  </si>
-  <si>
-    <t>7-11 Jun: ITTF-Oceania Senior Championships, Christchurch (NZL)</t>
-  </si>
-  <si>
-    <t>9-15 Jun: WTT Contender Skopje 2025 (MKD)</t>
-  </si>
-  <si>
-    <t>12-16 Jun: ITTF-Oceania Youth Championships, Christchurch (NZL)</t>
-  </si>
-  <si>
-    <t>11-14 Jun: WTT Youth Contender Sandefjord 2025 (NOR)</t>
-  </si>
-  <si>
-    <t>15-22 Jun: 2025 European Veterans Championships – Novi Sad (SRB)**</t>
-  </si>
-  <si>
-    <t>16-22 Jun : Caribbean Regional Championships, Bridgetown (BAR)</t>
-  </si>
-  <si>
-    <t>17-22Jun: WTT Star Contender Ljubljana 2025 (SLO)</t>
-  </si>
-  <si>
-    <t>22-29 Jun: South America Regional Championships, Lima (PER)</t>
-  </si>
-  <si>
-    <t>23-29 Jun: WTT Contender Zagreb 2025 (CRO)</t>
-  </si>
-  <si>
-    <t>24-27 Jun: WTT Youth Contender New York 2025 (USA)</t>
-  </si>
-  <si>
-    <t>25-29 Jun: WTT Feeder Caracas 2025 (VEN)</t>
-  </si>
-  <si>
-    <t>26 Jun-2 Jul: 29th Asian Youth Championships, Tashkent (UZB)</t>
-  </si>
-  <si>
-    <t>27-29 Jun: Central Africa Regional Championships, Brazzaville (CGO)</t>
-  </si>
-  <si>
-    <t>1-4 Jul: WTT Youth Contender Caracas 2025 (VEN)</t>
-  </si>
-  <si>
-    <t>3-13 Jul: United States Smash 2025 (USA)</t>
-  </si>
-  <si>
-    <t>11-20 Jul: European Youth Championships, Ostrava (CZE)</t>
-  </si>
-  <si>
-    <t>14-17 Jul: South Africa Regional Championships, Windhoek (NAM)</t>
-  </si>
-  <si>
-    <t>16-19 Jul: West Africa Regional Championships, Lagos (NGR)</t>
-  </si>
-  <si>
-    <t>17-20 Jul: WTT Youth Contender San Francisco III 2025 (USA)</t>
-  </si>
-  <si>
-    <t>17-24 Jul: 2025 FISU World University Games, Rhine-Ruhr (GER)</t>
-  </si>
-  <si>
-    <t>21-27 Jul: WTT Contender Lagos 2025 (NGR)</t>
-  </si>
-  <si>
-    <t>23-26 Jul: WTT Youth Contender Almaty 2025 (KAZ)</t>
-  </si>
-  <si>
-    <t>27 Jul-3 Aug: ITTF African Youth Championships, Lagos (NGR)</t>
-  </si>
-  <si>
-    <t>28-3 Aug: WTT Youth Contender Hong Kong 2025 (HKG)</t>
-  </si>
-  <si>
-    <t>29 Jul-3 Aug: WTT Star Contender Foz do Iguaçu 2025 (BRA)</t>
-  </si>
-  <si>
-    <t>1-6 Aug: Central America Regional U11-U13 Championships, Belmopan (BIZ)**</t>
-  </si>
-  <si>
-    <t>4-5 Aug: ITTF-African Youth Cup, Lagos (NGR)</t>
-  </si>
-  <si>
-    <t>6-9 Aug: WTT Youth Contender Vientiane 2025 (LAO)</t>
-  </si>
-  <si>
-    <t>7-11 Aug: WTT Champions Yokohama 2025 (JPN)</t>
-  </si>
-  <si>
-    <t>11-15 Aug: WTT Feeder Vientiane 2025 (LAO)</t>
-  </si>
-  <si>
-    <t>11-17 Aug (TBC): Caribbean Regional U11-U13 Championships, Bridgetown (BAR)**</t>
-  </si>
-  <si>
-    <t>14-17Aug: WTT Youth Contender Mississauga 2025 (CAN)</t>
-  </si>
-  <si>
-    <t>14-17 Aug: WTT Youth Contender Amman 2025 (JOR)</t>
-  </si>
-  <si>
-    <t>14-24 Aug: Europe Smash – Sweden 2025 | Malmo (SWE)</t>
-  </si>
-  <si>
-    <t>16-21 Aug: Junior Pan American Games, Asunción (PAR)**</t>
-  </si>
-  <si>
-    <t>20-24 Aug: WTT Feeder Panagyurishte 2025 (BUL)</t>
-  </si>
-  <si>
-    <t>24-31 Aug: Pan American Youth Championships, Rosario (ARG)</t>
-  </si>
-  <si>
-    <t>26-31 Aug: WTT Feeder Olomouc 2025 (CZE)</t>
-  </si>
-  <si>
-    <t>28 Aug-3 Sep: WTT Youth Contender Otocec 2025 (SLO)</t>
-  </si>
-  <si>
-    <t>28 Aug-3 Sep: WTT Youth Contender Varazdin 2025 (CRO)</t>
-  </si>
-  <si>
-    <t>29-31 Aug: Euro Mini Champs, Schiltigheim (FRA)**</t>
-  </si>
-  <si>
-    <t>1-7 Sep: WTT Contender Almaty 2025 (KAZ)</t>
-  </si>
-  <si>
-    <t>3-10 Sep: Pan American U11-U13 Championships, Antigua (GUA)**</t>
-  </si>
-  <si>
-    <t>5-7 Sep: WTT Youth Star Contender Skopje 2025 (MKD)</t>
-  </si>
-  <si>
-    <t>9-14 Sep: WTT Champions Macao 2025 (MAC)</t>
-  </si>
-  <si>
-    <t>10-13 Sep: WTT Youth Contender Bangkok II 2025 (THA)</t>
-  </si>
-  <si>
-    <t>10-13 Sep: WTT Youth Contender Luxembourg 2025 (LUX)</t>
-  </si>
-  <si>
-    <t>11-15 Sep: Central America Regional Masters Championships, Antigua (GUA)**</t>
-  </si>
-  <si>
-    <t>16-20 Sep: WTT Feeder Cappadocia II 2025 (TUR)</t>
-  </si>
-  <si>
-    <t>18-21 Sep: WTT Youth Contender Batumi 2025 (GEO)</t>
-  </si>
-  <si>
-    <t>23-26 Sep: WTT Youth Contender New York II 2025 (USA)</t>
-  </si>
-  <si>
-    <t>24-27 Sep: WTT Youth Contender Darwin 2025 (AUS)</t>
-  </si>
-  <si>
-    <t>24-28 Sep: European U13 Championships, Kosta (SWE)**</t>
-  </si>
-  <si>
-    <t>25 Sep-5 Oct: China Smash 2025 (CHN)</t>
-  </si>
-  <si>
-    <t>3-5 Oct: Europe Youth Top-10, Tours (FRA)</t>
-  </si>
-  <si>
-    <t>8-11 Oct: WTT Youth Contender Tunis II 2025 (TUN)</t>
-  </si>
-  <si>
-    <t>11-15 Oct: 28th ITTF-ATTU Asian Teams Championships, TBC (IND)</t>
-  </si>
-  <si>
-    <t>12-19 Oct: 2025 European Team Championships Final Stage – Zadar (CRO)</t>
-  </si>
-  <si>
-    <t>12-19 Oct: ITTF African Championships, Kigali (RWA)</t>
-  </si>
-  <si>
-    <t>12-19 Oct: Pan American Championships, Rock Hill SC (USA)</t>
-  </si>
-  <si>
-    <t>13:16 Oct: WTT Youth Contender Podgorica 2025 (MNE)</t>
-  </si>
-  <si>
-    <t>17-19 Oct: WTT Youth Star Contender Podgorica 2025 (MNE)</t>
-  </si>
-  <si>
-    <t>20-26 Oct: WTT Star Contender London 2025 (ENG)</t>
-  </si>
-  <si>
-    <t>23-26 Oct: WTT Youth Contender Dubai 2025 (UAE)</t>
-  </si>
-  <si>
-    <t>23-26 Oct: WTT Youth Contender Caracas II 2025 (VEN)</t>
-  </si>
-  <si>
-    <t>28Oct-2 Nov: WTT Champions Montpellier 2025 (FRA)</t>
-  </si>
-  <si>
-    <t>28 Oct-2 Nov: WTT Feeder Rimini 2025 (ITA)</t>
-  </si>
-  <si>
-    <t>29 Oct-1 Nov: WTT Youth Contender Cairo 2025 (EGY)</t>
-  </si>
-  <si>
-    <t>3-9 Nov: WTT Youth Contender Lignano 2025 (ITA)</t>
-  </si>
-  <si>
-    <t>3-9 Nov: WTT Youth Contender Senec 2025 (SVK)</t>
-  </si>
-  <si>
-    <t>4-9 Nov: WTT Champions Frankfurt 2025 (GER)</t>
-  </si>
-  <si>
-    <t>4-9 Nov: Pan American Masters Championships, Caracas (VEN)**</t>
-  </si>
-  <si>
-    <t>5-8 Nov: WTT Youth Contender Sulaymaniyah 2025 (IRQ)</t>
-  </si>
-  <si>
-    <t>5-9 Nov: WTT Feeder Vila Nova de Gaia 2025 (POR)</t>
-  </si>
-  <si>
-    <t>11-14 Nov: WTT Youth Contender Szombathely 2025 (HUN)</t>
-  </si>
-  <si>
-    <t>16-19 Nov: WTT Youth Contender Dammam 2025 (KSA)</t>
-  </si>
-  <si>
-    <t>22-25 Nov: WTT Youth Contender San Francisco IV 2025 (USA)</t>
-  </si>
-  <si>
-    <t>24-28 Nov: WTT Feeder Düsseldorf II 2025 (GER)</t>
-  </si>
-  <si>
-    <t>TBD : WTT Finals (Location TBC)</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3001</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3083</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3002</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3084</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3003</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3004</t>
-  </si>
-  <si>
-    <t>https://www.ettu.org/en/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3034</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3085</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3035</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3026</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3005</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3020</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3032</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3033</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/3115/ITTF-Oceania%20Cup%202025/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3006</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3030</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/3117/ITTF%20Pan%20American%20Cup%202025/</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/3122/34th%20ITTF-ATTU%20Asian%20Cup%202025/</t>
-  </si>
-  <si>
-    <t>https://www.ettu.org/europe-top-16/</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/3116/ITTF%20African%20Cup%202025/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3073</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3007</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/5655/ITTF-World-Para-Future-Lignano-2025/</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/3171/2025%20ITTF%20%E2%80%93%20CONSUTEME%20Circle%2010/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3008</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3009</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/5656/ITTF-World-Para-Future-Costa-Brava-2025/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3086</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3113</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3120</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3037</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/3152/South%20American%20U11%20and%20U13%20Championships%202025/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3024</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3133</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3074</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/5657/ITTF-World-Para-Challenger-Wladyslawowo-2025/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3025</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3075</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3087</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/3151/CentralAmerica2025/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3071</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3063</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3069</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3038</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3088</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/5658/ITTF-World-Para-Future-Lahti-2025/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3021</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3039</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/5659/ITTF-World-Para-Future-Amman-2025/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3022</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/3109/MWC_WWC_Macao2025/</t>
+    <t>07-11 Jan: WTT Champions Doha 2026 (QAT)</t>
+  </si>
+  <si>
+    <t>02-05 Jan: WTT Youth Contender Vadodara 2026 (IND)</t>
+  </si>
+  <si>
+    <t>02-05 Jan: WTT Youth Contender San Francisco 2026 (USA)</t>
+  </si>
+  <si>
+    <t>07-11 Jan: WTT Feeder Vadodara 2026 (IND)</t>
+  </si>
+  <si>
+    <t>08-11 Jan: WTT Youth Contender Linz 2026 (AUS)</t>
+  </si>
+  <si>
+    <t>13-18 Jan: WTT Star Contender Doha 2026 (QAT)</t>
+  </si>
+  <si>
+    <t>14-17 Jan: WTT Youth Contender Manama 2026 (BRN)</t>
+  </si>
+  <si>
+    <t>19-22 Jan: WTT Youth Contender Doha 2026 (QAT)</t>
+  </si>
+  <si>
+    <t>19-24 Jan: WTT Contender Muscat 2026 (OMA)</t>
+  </si>
+  <si>
+    <t>23-25 Jan: WTT Youth Star Contender Doha 2026 (QAT)</t>
+  </si>
+  <si>
+    <t>27-31 Jan: WTT Feeder Doha 2026 (QAT)</t>
+  </si>
+  <si>
+    <t>27-31 Jan: WTT Feeder Lille 2026 (FRA)</t>
+  </si>
+  <si>
+    <t>28-31 Jan: WTT Youth Contender Cappadocia 2026 (TUR)</t>
+  </si>
+  <si>
+    <t>28 Jan-01 Feb: ITTF-Americas Cup San Francisco 2026 (USA)</t>
+  </si>
+  <si>
+    <t>31 Jan-01 Feb: ITTF-Oceania Cup Christchurch 2026 (NZL)</t>
+  </si>
+  <si>
+    <t>02-05 Feb: WTT Youth Contender Tunis 2026 (TUN)</t>
+  </si>
+  <si>
+    <t>02-06 Feb: WTT Feeder Cappadocia 2026 (TUR)</t>
+  </si>
+  <si>
+    <t>02-07 Feb: ITTF-Americas Masters Championships Asuncion 2026 (PAR)**</t>
+  </si>
+  <si>
+    <t>05-08 Feb: Europe Top 16 Cup Montreux 2026 (SUI)</t>
+  </si>
+  <si>
+    <t>06-08 Feb: WTT Youth Star Contender Tunis 2026 (TUN)</t>
+  </si>
+  <si>
+    <t>10-13 Feb: WTT Youth Contender Vila Real 2026 (POR)</t>
+  </si>
+  <si>
+    <t>10-15 Feb: WTT Star Contender Chennai 2026 (IND)</t>
+  </si>
+  <si>
+    <t>19 Feb-01 Mar: Singapore Smash 2026 (SGP)</t>
+  </si>
+  <si>
+    <t>02-06 Mar: WTT Feeder Düsseldorf 2026 (GER)</t>
+  </si>
+  <si>
+    <t>04-07 Mar: WTT Youth Contender Buenos Aires 2026 (ARG)</t>
+  </si>
+  <si>
+    <t>04-07 Mar: WTT Youth Contender Wladyslawowo 2026 (POL)</t>
+  </si>
+  <si>
+    <t>07-11 Mar: WTT Feeder Otocec 2026 (SLO)</t>
+  </si>
+  <si>
+    <t>09-12 Mar: WTT Youth Contender Asunción 2026 (PAR)</t>
+  </si>
+  <si>
+    <t>09-15 Mar: WTT Youth Contender Berlin 2026 (GER)</t>
+  </si>
+  <si>
+    <t>09-15 Mar: WTT Youth Contender Havirov 2026 (CZE)</t>
+  </si>
+  <si>
+    <t>10-15 Mar: WTT Champions Chongqing 2026 (CHN)</t>
+  </si>
+  <si>
+    <t>12-16 Mar: WTT Feeder Varazdin 2026 (CRO)</t>
+  </si>
+  <si>
+    <t>14-20 Mar: South America U11&amp;U13 Championships Asuncion 2026 (PAR)**</t>
+  </si>
+  <si>
+    <t>21-24 Mar: WTT Youth Contender Riyadh 2026 (KSA)</t>
+  </si>
+  <si>
+    <t>23-28 Mar: WTT Contender Tunisia 2026 (TUN)</t>
+  </si>
+  <si>
+    <t>26-29 Mar: WTT Youth Contender Panagyurishte 2026 (BUL)</t>
+  </si>
+  <si>
+    <t>26-29 Mar: WTT Youth Contender Humacao 2026 (PUR)</t>
+  </si>
+  <si>
+    <t>28 Mar-04 Apr: South America Masters Championships Lima 2026 (PER)**</t>
+  </si>
+  <si>
+    <t>31 Mar-3 Apr: WTT Youth Contender Novi Sad 2026 (SRB)</t>
+  </si>
+  <si>
+    <t>06-12 Apr: Caribbean Youth Championships Santo Domingo 2026 (DOM)</t>
+  </si>
+  <si>
+    <t>07-11 Apr: WTT Feeder Cappadocia II 2026 (TUR)</t>
+  </si>
+  <si>
+    <t>07-12 Apr: WTT Contender Taiyuan 2026 (CHN)</t>
+  </si>
+  <si>
+    <t>08-11 Apr: WTT Youth Contender Luxembourg 2026 (LUX)</t>
+  </si>
+  <si>
+    <t>13-16 Apr: WTT Youth Contender Metz 2026 (FRA)</t>
+  </si>
+  <si>
+    <t>13-17 Apr: WTT Feeder Havirov 2026 (CZE)</t>
+  </si>
+  <si>
+    <t>15-21 Apr: Central America &amp; Caribbean Championships Santo Domingo 2026 (DOM)</t>
+  </si>
+  <si>
+    <t>15-21 Apr: South America Youth Championships Rio de Janaeiro 2026 (BRA)</t>
+  </si>
+  <si>
+    <t>17-19 Apr: WTT Youth Star Contender Metz 2026 (FRA)</t>
+  </si>
+  <si>
+    <t>18-22 Apr: WTT Feeder Senec 2026 (SVK)</t>
+  </si>
+  <si>
+    <t>22-25 Apr: WTT Youth Contender Sulaymaniyah 2026 (IRQ)</t>
+  </si>
+  <si>
+    <t>27-30 Apr: WTT Youth Contender Sarajevo 2026 (BIH)</t>
+  </si>
+  <si>
+    <t>28 Apr-10 May: ITTF World Team Championships London 2026 (ENG)</t>
+  </si>
+  <si>
+    <t>06-09 May: WTT Youth Contender Platja D’Aro 2026 (ESP)</t>
+  </si>
+  <si>
+    <t>10-14 May: WTT Feeder Istanbul 2026 (TUR)</t>
+  </si>
+  <si>
+    <t>13-16 May: WTT Youth Contender Tashkent 2026 (UZB)</t>
+  </si>
+  <si>
+    <t>15-18 May: WTT Youth Contender Mississauga 2026 (CAN)</t>
+  </si>
+  <si>
+    <t>15-19 May: WTT Feeder Albufeira 2026 (POR)</t>
+  </si>
+  <si>
+    <t>18-21 May: WTT Youth Contender Bangkok 2026 (THA)</t>
+  </si>
+  <si>
+    <t>19-24 May: WTT Contender Lagos 2026 (NGR)</t>
+  </si>
+  <si>
+    <t>20-24 May: WTT Feeder Hennebont 2026 (FRA)</t>
+  </si>
+  <si>
+    <t>22-24 May: WTT Youth Star Contender Bangkok 2026 (THA)</t>
+  </si>
+  <si>
+    <t>22-25 May: WTT Youth Contender Prishtina 2026 (KOS)</t>
+  </si>
+  <si>
+    <t>27-31 May: WTT Feeder Prishtina 2026 (KOS)</t>
+  </si>
+  <si>
+    <t>30 May-2 Jun: WTT Youth Contender Sandefjord 2026 (NOR)</t>
+  </si>
+  <si>
+    <t>May: Central America Youth Championships Panama 2026 (PAN)</t>
+  </si>
+  <si>
+    <t>01-07 Jun: WTT Contender Skopje 2026 (MKD)</t>
+  </si>
+  <si>
+    <t>04-07 Jun: WTT Youth Contender Helsingborg 2026 (SWE)</t>
+  </si>
+  <si>
+    <t>05-12 Jun: ITTF World Masters Championships Gangneung 2026 (KOR)</t>
+  </si>
+  <si>
+    <t>08-11 Jun: WTT Youth Contender Rio De Janeiro 2026 (BRA)</t>
+  </si>
+  <si>
+    <t>09-14 Jun: WTT Contender Zagreb 2026 (CRO)</t>
+  </si>
+  <si>
+    <t>12-14 Jun: WTT Youth Star Contender Rio De Janeiro 2026 (BRA)</t>
+  </si>
+  <si>
+    <t>15-21 Jun: South America Championships Santiago 2026 (CHI)</t>
+  </si>
+  <si>
+    <t>16-21 Jun: WTT Star Contender Ljubljana 2026 (SLO)</t>
+  </si>
+  <si>
+    <t>17-21 Jun: European U21 Championships Cluj-Napoca 2026 (ROU)</t>
+  </si>
+  <si>
+    <t>22-28 Jun: Asia Youth Championships Pyongyang 2026 (PRK)</t>
+  </si>
+  <si>
+    <t>24-27 Jun: WTT Youth Contender Caracas 2026 (VEN)</t>
+  </si>
+  <si>
+    <t>25 Jun-05 Jul: United States Smash 2026 (USA)</t>
+  </si>
+  <si>
+    <t>01-05 Jul: WTT Feeder Istanbul II 2026 (TUR)</t>
+  </si>
+  <si>
+    <t>05-15 Jul: Parasouth American Games Valledupar 2026 (COL)</t>
+  </si>
+  <si>
+    <t>6-12 Jul: WTT Youth Contender Hong Kong 2026 (HKG)</t>
+  </si>
+  <si>
+    <t>08-12 Jul: WTT Feeder Asunción 2026 (PAR)</t>
+  </si>
+  <si>
+    <t>10-12 Jul: South Africa Championships Harare 2025 (ZIM)</t>
+  </si>
+  <si>
+    <t>10-17 Jul: European Youth Championships Gondomar 2026 (POR)</t>
+  </si>
+  <si>
+    <t>14-17 Jul: WTT Youth Contender Ulaanbaatar 2026 (MGL)</t>
+  </si>
+  <si>
+    <t>14-19 Jul: WTT Contender Buenos Aires 2026 (ARG)</t>
+  </si>
+  <si>
+    <t>19-22 Jul: WTT Youth Contender Tashkent II 2026 (UZB)</t>
+  </si>
+  <si>
+    <t>19-23 Jul: WTT Feeder Ulaanbaatar 2026 (MGL)</t>
+  </si>
+  <si>
+    <t>20-25 Jul: ITTF-Oceania Hopes Week Auckland 2026 (NZL)**</t>
+  </si>
+  <si>
+    <t>21-26 Jul: WTT Star Contender Brazil 2026 (BRA)</t>
+  </si>
+  <si>
+    <t>24-27 Jul: WTT Youth Contender Almaty 2026 (KAZ)</t>
+  </si>
+  <si>
+    <t>24-28 Jul: WTT Feeder Tashkent 2026 (UZB)</t>
+  </si>
+  <si>
+    <t>24 Jul-08 Aug: XXV Central American and Caribbean Games Santo Domingo 2026 (DOM)</t>
+  </si>
+  <si>
+    <t>29 Jul-2 Aug: WTT Feeder Tunis 2026 (TUN)</t>
+  </si>
+  <si>
+    <t>30 Jul-2 Aug: WTT Youth Contender Vientiane 2026 (LAO)</t>
+  </si>
+  <si>
+    <t>04-08 Aug: WTT Feeder Vientiane 2026 (LAO)</t>
+  </si>
+  <si>
+    <t>05-08 Aug: WTT Youth Contender Amman 2026 (JOR)</t>
+  </si>
+  <si>
+    <t>05-09 Aug: WTT Champions Yokohama 2026 (JPN)</t>
+  </si>
+  <si>
+    <t>13-23 Aug: Europe Smash – Sweden 2026 (SWE)</t>
+  </si>
+  <si>
+    <t>19-23 Aug: WTT Feeder Berlin 2026 (GER)</t>
+  </si>
+  <si>
+    <t>23-30 Aug: ITTF Americas Youth Championships Guatemala City 2026 (GUA)</t>
+  </si>
+  <si>
+    <t>24-18 Aug: WTT Feeder Olomouc 2026 (CZE)</t>
+  </si>
+  <si>
+    <t>25-31 Aug: WTT Youth Contender Varazdin 2026 (CRO)</t>
+  </si>
+  <si>
+    <t>25-31 Aug: WTT Youth Contender Otocec 2026 (SLO)</t>
+  </si>
+  <si>
+    <t>26-30 Aug: ITTF-Oceania Championships Ballarat 2026, (AUS)</t>
+  </si>
+  <si>
+    <t>01-05 Sep: ITTF-Oceania Youth Championships Ballarat 2026, (AUS)</t>
+  </si>
+  <si>
+    <t>01-06 Sep: WTT Contender Almaty 2026 (KAZ)</t>
+  </si>
+  <si>
+    <t>03-06 Sep: WTT Youth Contender Tunis II 2026 (TUN)</t>
+  </si>
+  <si>
+    <t>03-06 Sep: WTT Youth Contender Cuenca 2026 (ECU)</t>
+  </si>
+  <si>
+    <t>08-13 Sep: WTT Champions Macao 2026 (MAC)</t>
+  </si>
+  <si>
+    <t>08-13 Sep: WTT Contender Panagyurishte 2026 (BUL)</t>
+  </si>
+  <si>
+    <t>09-12 Sep: WTT Youth Contender Bangkok II 2026 (THA)</t>
+  </si>
+  <si>
+    <t>09-12 Sep: WTT Youth Contender Monteria 2026 (COL)</t>
+  </si>
+  <si>
+    <t>12-15 Sep: Central America Masters Championships Tegucigalpa 2026 (HON)**</t>
+  </si>
+  <si>
+    <t>14-17 Sep: WTT Youth Contender Gangneung 2026 (KOR)</t>
+  </si>
+  <si>
+    <t>14-18 Sep: WTT Feeder Bangkok 2026 (THA)</t>
+  </si>
+  <si>
+    <t>15-20 Sep: WTT Star Contender London 2026 (ENG)</t>
+  </si>
+  <si>
+    <t>18-20 Sep: WTT Youth Star Contender Gangneung 2026 (KOR)</t>
+  </si>
+  <si>
+    <t>21-24 Sep: WTT Youth Contender Pepinster 2026 (BEL)</t>
+  </si>
+  <si>
+    <t>23-27 Sep: WTT Feeder Linz 2026 (AUT)</t>
+  </si>
+  <si>
+    <t>27-30 Sep: WTT Youth Contender Batumi 2026 (GEO)</t>
+  </si>
+  <si>
+    <t>27-30 Sep: WTT Youth Contender Asunción II 2026 (PAR)</t>
+  </si>
+  <si>
+    <t>01-11 Oct: China Smash 2026 (CHN)</t>
+  </si>
+  <si>
+    <t>02-05 Oct: WTT Youth Contender Cairo 2026 (EGY)</t>
+  </si>
+  <si>
+    <t>02-04 Oct: Europe Youth Top 10 Antibes 2026 (FRA)</t>
+  </si>
+  <si>
+    <t>02-05 Oct: WTT Youth Contender Buenos Aires II 2026 (ARG)</t>
+  </si>
+  <si>
+    <t>07-11 Oct: WTT Feeder Doha II 2026 (QAT)</t>
+  </si>
+  <si>
+    <t>11-18 Oct: European Individual Championships Ljubljana 2026 (SLO)</t>
+  </si>
+  <si>
+    <t>13-16 Oct: WTT Youth Contender Doha II 2026 (QAT)</t>
+  </si>
+  <si>
+    <t>18-21 Oct: WTT Youth Contender Dubai 2026 (UAE)</t>
+  </si>
+  <si>
+    <t>18-25 Oct: ITTF-Americas Championships Lima 2026 (PER)</t>
+  </si>
+  <si>
+    <t>21-27 Oct: WTT Youth Contender Lignano 2026 (ITA)</t>
+  </si>
+  <si>
+    <t>21-27 Oct: WTT Youth Contender Senec 2026 (SVK)</t>
+  </si>
+  <si>
+    <t>23-26 Oct: WTT Youth Contender Chennai 2026 (IND)</t>
+  </si>
+  <si>
+    <t>27 Oct-01 Nov: WTT Champions Montpellier 2026 (FRA)</t>
+  </si>
+  <si>
+    <t>28 Oct-1 Nov: WTT Feeder Chennai 2026 (IND)</t>
+  </si>
+  <si>
+    <t>29 Oct-1 Nov: WTT Youth Contender Szombathely 2026 (HUN)</t>
+  </si>
+  <si>
+    <t>31 Oct-05 Nov: Youth Olympic Games Dakar 2026 (SEN)</t>
+  </si>
+  <si>
+    <t>03-06 Nov: WTT Youth Contender Podgorica 2026 (MNE)</t>
+  </si>
+  <si>
+    <t>03-08 Nov: WTT Champions Germany 2026 (GER)</t>
+  </si>
+  <si>
+    <t>04-08 Nov: WTT Feeder Vila Nova de Gaia 2026 (POR)</t>
+  </si>
+  <si>
+    <t>07-09 Nov: WTT Youth Star Contender Podgorica 2026 (MNE)</t>
+  </si>
+  <si>
+    <t>10-15 Nov: WTT Contender Istanbul 2026 (TUR)</t>
+  </si>
+  <si>
+    <t>11-15 Nov: European U13 Championships Nevsehir 2026 (TUR) **</t>
+  </si>
+  <si>
+    <t>16-21 Nov: WTT Star Contender Muscat 2026 (OMA)</t>
+  </si>
+  <si>
+    <t>23-27 Nov: WTT Feeder Düsseldorf II 2026 (GER)</t>
+  </si>
+  <si>
+    <t>28 Nov-2 Dec: WTT Feeder Gdansk 2026 (POL)</t>
+  </si>
+  <si>
+    <t>Nov: ITTF-Americas Masters Championships 2026 (TBD)**</t>
+  </si>
+  <si>
+    <t>08-13 Dec: WTT Finals Hong Kong 2026 (HKG)</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3231</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3273</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3274</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3353</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3275</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3232</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3276</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3278</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3251</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3277</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3354</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3355</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3279</t>
   </si>
   <si>
     <t>https://americas.ittf.com/</t>
   </si>
   <si>
-    <t>https://www.ittf.com/tournament/3167/CaribbeanYouthChamps2025/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3064</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3070</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3089</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3023</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/5661/ITTF-World-Para-Challenger-Sao-Paulo-2025/</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/3135/2025%20North%20Africa%20Regional%20Championships/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3040</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/5662/ITTF-World-Para-Challenger-Podgorica-2025/</t>
-  </si>
-  <si>
-    <t>https://americas.ittf.com/home</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3041</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/5664/ITTF-World-Para-Challenger-Lasko-2025/</t>
+    <t>https://www.ittf.com/tournament/3300/ITTFOceania%20cup/</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3280</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3266</t>
+  </si>
+  <si>
+    <t>https://www.ittf.com/tournament/3388/ITTFAmericas%20Masters%20Championships%20Asuncion%202026/</t>
   </si>
   <si>
     <t>https://www.ettu.org/</t>
   </si>
   <si>
-    <t>https://www.ittf.com/tournament/5663/ITTF-World-Para-Elite-Lasko-2025/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3080</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3012</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/3108/ittf-world-championships-finals-2025/#information</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/3154/South%20American%20Youth%20Championships/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3013</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3042</t>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3281</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3284</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3233</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3234</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3267</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3286</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3291</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3268</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3292</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3293</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3294</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3235</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3356</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3295</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3236</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3296</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3299</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3297</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3373</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3237</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3298</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3301</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3270</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3302</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3357</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3303</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3304</t>
+  </si>
+  <si>
+    <t>https://www.ittf.com/tournament/3216/WTTTC_Finals_2026/#information</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3305</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3358</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3320</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3307</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3360</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3308</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3238</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3361</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3306</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3309</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3271</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3310</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3239</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3311</t>
+  </si>
+  <si>
+    <t>https://www.ittf.com/tournament/3225/ittf-world-masters-table-tennis-championships-gangneung-2026/#information</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3312</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3240</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3313</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3241</t>
+  </si>
+  <si>
+    <t>https://asia.ittf.com/</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3315</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3242</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3359</t>
+  </si>
+  <si>
+    <t>https://parasuramericanos2026.com/</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3318</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3363</t>
   </si>
   <si>
     <t>https://africa.ittf.com/</t>
   </si>
   <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3060</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3058</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3014</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/3147/ITTF%20Oceania%20Championships%202025/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3090</t>
-  </si>
-  <si>
-    <t>https://www.ittf.com/tournament/3148/ITTF%20Oceania%20Youth%20Championships%202025/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3015</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3091</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3092</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3067</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3132</t>
-  </si>
-  <si>
-    <t>https://asia.ittf.com/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3119</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3082</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3043</t>
-  </si>
-  <si>
-    <t>https://rhineruhr2025.com/en</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3121</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3045</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3017</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3093</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3072</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3094</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3131</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3127</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3044</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3128</t>
-  </si>
-  <si>
-    <t>https://www.panamsports.org</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3027</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3028</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3046</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3047</t>
-  </si>
-  <si>
-    <t>https://www.eurominichamps.com/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3096</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3061</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3097</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3048</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3049</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3031</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3062</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3068</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3050</t>
-  </si>
-  <si>
-    <t>https://www.ettu.org/european-under-13-championships/</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3098</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3107</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3078</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3079</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3110</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3077</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3123</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3099</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3059</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3051</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3053</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3056</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3100</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3052</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3066</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3054</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3076</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3055</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/eventInfo?eventId=3065</t>
-  </si>
-  <si>
-    <t>https://worldtabletennis.com/</t>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3319</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3243</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3366</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3364</t>
+  </si>
+  <si>
+    <t>https://oceania.ittf.com/</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3244</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3321</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3365</t>
+  </si>
+  <si>
+    <t>https://jcc2026.org/</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3372</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3322</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3272</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3323</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3245</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3246</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3374</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3282</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3326</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3328</t>
+  </si>
+  <si>
+    <t>https://oceania.ittf.com/home</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3247</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3314</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3332</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3248</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3253</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3331</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3337</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3330</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3371</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3254</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3329</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3334</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3375</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3333</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3367</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3249</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3347</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3368</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3283</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3336</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3340</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3338</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3339</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3369</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3250</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3376</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3344</t>
+  </si>
+  <si>
+    <t>https://www.ittf.com/tournament/3219/dakar-2026-youth-olympic-games/#information</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3345</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3252</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3370</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3346</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3257</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3256</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3352</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3269</t>
+  </si>
+  <si>
+    <t>https://www.worldtabletennis.com/eventInfo?eventId=3255</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1347,7 +1302,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1358,7 +1313,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1369,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1380,7 +1335,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1391,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1402,7 +1357,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1413,7 +1368,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1424,7 +1379,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1435,62 +1390,62 @@
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1501,7 +1456,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1512,7 +1467,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1523,7 +1478,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1534,7 +1489,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1545,7 +1500,7 @@
         <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1556,7 +1511,7 @@
         <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1567,7 +1522,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1578,7 +1533,7 @@
         <v>37</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1589,7 +1544,7 @@
         <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1600,7 +1555,7 @@
         <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1611,7 +1566,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1622,7 +1577,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1633,7 +1588,7 @@
         <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1644,7 +1599,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1655,7 +1610,7 @@
         <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1666,7 +1621,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1677,7 +1632,7 @@
         <v>46</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1688,7 +1643,7 @@
         <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1699,7 +1654,7 @@
         <v>48</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1710,7 +1665,7 @@
         <v>49</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1721,7 +1676,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1732,7 +1687,7 @@
         <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1743,7 +1698,7 @@
         <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1754,7 +1709,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1765,7 +1720,7 @@
         <v>54</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1776,7 +1731,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1787,7 +1742,7 @@
         <v>56</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1798,7 +1753,7 @@
         <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1809,7 +1764,7 @@
         <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1820,7 +1775,7 @@
         <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1831,7 +1786,7 @@
         <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1842,7 +1797,7 @@
         <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1853,7 +1808,7 @@
         <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1864,7 +1819,7 @@
         <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1875,7 +1830,7 @@
         <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1886,7 +1841,7 @@
         <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1897,128 +1852,128 @@
         <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2029,7 +1984,7 @@
         <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2040,128 +1995,128 @@
         <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
         <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
         <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
         <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
         <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
         <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
         <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
         <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2172,161 +2127,161 @@
         <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
         <v>94</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
         <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
         <v>97</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
         <v>100</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
         <v>102</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
         <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
         <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2337,7 +2292,7 @@
         <v>106</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2348,7 +2303,7 @@
         <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2359,106 +2314,106 @@
         <v>108</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
         <v>109</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
         <v>111</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
         <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
         <v>113</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
         <v>114</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
         <v>115</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
         <v>116</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
         <v>117</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2469,172 +2424,172 @@
         <v>118</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
         <v>119</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
         <v>120</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
         <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
         <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
         <v>123</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
         <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
         <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
         <v>126</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
         <v>127</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>273</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
         <v>128</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
         <v>129</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B117" t="s">
         <v>130</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
         <v>131</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
         <v>132</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
         <v>133</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2645,7 +2600,7 @@
         <v>134</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2656,128 +2611,128 @@
         <v>135</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
         <v>136</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
         <v>137</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B125" t="s">
         <v>138</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>282</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
         <v>139</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
         <v>140</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
         <v>141</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>284</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
         <v>142</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
         <v>143</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
         <v>144</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
         <v>145</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
         <v>146</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2788,7 +2743,7 @@
         <v>147</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2799,7 +2754,7 @@
         <v>148</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2810,7 +2765,7 @@
         <v>149</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2821,7 +2776,7 @@
         <v>150</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>178</v>
+        <v>283</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2832,106 +2787,106 @@
         <v>151</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B139" t="s">
         <v>152</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B140" t="s">
         <v>153</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B141" t="s">
         <v>154</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
         <v>155</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B143" t="s">
         <v>156</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B144" t="s">
         <v>157</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>295</v>
+        <v>181</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
         <v>158</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
         <v>159</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B147" t="s">
         <v>160</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2942,117 +2897,18 @@
         <v>161</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>299</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B149" t="s">
         <v>162</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>13</v>
-      </c>
-      <c r="B150" t="s">
-        <v>163</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151" t="s">
-        <v>164</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>13</v>
-      </c>
-      <c r="B152" t="s">
-        <v>165</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>13</v>
-      </c>
-      <c r="B153" t="s">
-        <v>166</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>13</v>
-      </c>
-      <c r="B154" t="s">
-        <v>167</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>13</v>
-      </c>
-      <c r="B155" t="s">
-        <v>168</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>13</v>
-      </c>
-      <c r="B156" t="s">
-        <v>169</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>13</v>
-      </c>
-      <c r="B157" t="s">
-        <v>170</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>14</v>
-      </c>
-      <c r="B158" t="s">
-        <v>171</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3108,7 +2964,7 @@
     <hyperlink ref="C50" r:id="rId49"/>
     <hyperlink ref="C51" r:id="rId50"/>
     <hyperlink ref="C52" r:id="rId51"/>
-    <hyperlink ref="C53" r:id="rId52"/>
+    <hyperlink ref="C53" r:id="rId52" location="information"/>
     <hyperlink ref="C54" r:id="rId53"/>
     <hyperlink ref="C55" r:id="rId54"/>
     <hyperlink ref="C56" r:id="rId55"/>
@@ -3124,10 +2980,10 @@
     <hyperlink ref="C66" r:id="rId65"/>
     <hyperlink ref="C67" r:id="rId66"/>
     <hyperlink ref="C68" r:id="rId67"/>
-    <hyperlink ref="C69" r:id="rId68"/>
+    <hyperlink ref="C69" r:id="rId68" location="information"/>
     <hyperlink ref="C70" r:id="rId69"/>
     <hyperlink ref="C71" r:id="rId70"/>
-    <hyperlink ref="C72" r:id="rId71" location="information"/>
+    <hyperlink ref="C72" r:id="rId71"/>
     <hyperlink ref="C73" r:id="rId72"/>
     <hyperlink ref="C74" r:id="rId73"/>
     <hyperlink ref="C75" r:id="rId74"/>
@@ -3193,7 +3049,7 @@
     <hyperlink ref="C135" r:id="rId134"/>
     <hyperlink ref="C136" r:id="rId135"/>
     <hyperlink ref="C137" r:id="rId136"/>
-    <hyperlink ref="C138" r:id="rId137"/>
+    <hyperlink ref="C138" r:id="rId137" location="information"/>
     <hyperlink ref="C139" r:id="rId138"/>
     <hyperlink ref="C140" r:id="rId139"/>
     <hyperlink ref="C141" r:id="rId140"/>
@@ -3205,15 +3061,6 @@
     <hyperlink ref="C147" r:id="rId146"/>
     <hyperlink ref="C148" r:id="rId147"/>
     <hyperlink ref="C149" r:id="rId148"/>
-    <hyperlink ref="C150" r:id="rId149"/>
-    <hyperlink ref="C151" r:id="rId150"/>
-    <hyperlink ref="C152" r:id="rId151"/>
-    <hyperlink ref="C153" r:id="rId152"/>
-    <hyperlink ref="C154" r:id="rId153"/>
-    <hyperlink ref="C155" r:id="rId154"/>
-    <hyperlink ref="C156" r:id="rId155"/>
-    <hyperlink ref="C157" r:id="rId156"/>
-    <hyperlink ref="C158" r:id="rId157"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
